--- a/biology/Botanique/Navicula/Navicula.xlsx
+++ b/biology/Botanique/Navicula/Navicula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Navicula est un genre d’algues (diatomées) de la famille des Naviculaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Navicula a pour synonyme :
-Scolioneis D.G. Mann in F.E. Round, R.M. Crawford &amp; D.G. Mann, 1990[2]</t>
+Scolioneis D.G. Mann in F.E. Round, R.M. Crawford &amp; D.G. Mann, 1990</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Liste des espèces, formes et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Navicula ingenua.
@@ -550,7 +566,7 @@
 			Navicula oblonga.
 			Navicula stesvicensis.
 			Navicula tripunctata.
-Selon ITIS      (5 mars 2021)[3] :
+Selon ITIS      (5 mars 2021) :
 forme Navicula approximata f. elongata Hustedt
 forme Navicula gastrum f. maxima Tempère &amp; M. Peragallo
 forme Navicula gracilis f. minor Guermeur
@@ -1485,7 +1501,7 @@
 Navicula vulpina Kützing
 Navicula walkeri Sovereign
 Navicula wardii Patrick
-Navicula wasmundii Witkowski, Metzeltin &amp;</t>
+Navicula wasmundii Witkowski, Metzeltin &amp; La</t>
         </is>
       </c>
     </row>
